--- a/output/order_receipts.xlsx
+++ b/output/order_receipts.xlsx
@@ -5,16 +5,19 @@
   <workbookPr dateCompatibility="0" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/I050385/github/Supplier_Prediction_Optimization/POC/output/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/I050385/github/Supplier_Selection_Optimization/output/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{37FE5791-FF71-EF45-A73A-33F94856B323}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{E9637D93-4DAD-C748-AF90-63E1C0781738}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3260" yWindow="2160" windowWidth="28040" windowHeight="17440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="order_receipts" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">order_receipts!$A$1:$Y$88</definedName>
+  </definedNames>
   <calcPr calcId="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
@@ -25,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" count="808" uniqueCount="193">
+<sst xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" count="982" uniqueCount="197">
   <si>
     <t>POId</t>
   </si>
@@ -604,6 +607,18 @@
   </si>
   <si>
     <t>12/10/2022 12:00 AM</t>
+  </si>
+  <si>
+    <t>SUPPLIERRPC04</t>
+  </si>
+  <si>
+    <t>S10</t>
+  </si>
+  <si>
+    <t>S21</t>
+  </si>
+  <si>
+    <t>Computer Accessories</t>
   </si>
 </sst>
 </file>
@@ -1449,12 +1464,15 @@
 <worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Y88"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A48" workbookViewId="0">
-      <selection activeCell="N94" sqref="N94"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G3" sqref="G3:G88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
+    <col min="3" max="3" width="16.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.83203125" customWidth="1"/>
+    <col min="7" max="7" width="18.6640625" customWidth="1"/>
     <col min="8" max="8" width="19.33203125" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="19.33203125" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="19.33203125" bestFit="1" customWidth="1"/>
@@ -1545,8 +1563,8 @@
       <c r="B2" t="s">
         <v>26</v>
       </c>
-      <c r="C2">
-        <v>100</v>
+      <c r="C2" t="s">
+        <v>193</v>
       </c>
       <c r="D2" t="s">
         <v>27</v>
@@ -1556,6 +1574,9 @@
       </c>
       <c r="F2">
         <v>432118</v>
+      </c>
+      <c r="G2" t="s">
+        <v>196</v>
       </c>
       <c r="H2" t="s">
         <v>28</v>
@@ -1619,8 +1640,8 @@
       <c r="B3" t="s">
         <v>26</v>
       </c>
-      <c r="C3">
-        <v>100</v>
+      <c r="C3" t="s">
+        <v>193</v>
       </c>
       <c r="D3" t="s">
         <v>27</v>
@@ -1630,6 +1651,9 @@
       </c>
       <c r="F3">
         <v>432118</v>
+      </c>
+      <c r="G3" t="s">
+        <v>196</v>
       </c>
       <c r="H3" t="s">
         <v>28</v>
@@ -1693,8 +1717,8 @@
       <c r="B4" t="s">
         <v>26</v>
       </c>
-      <c r="C4">
-        <v>100</v>
+      <c r="C4" t="s">
+        <v>193</v>
       </c>
       <c r="D4" t="s">
         <v>27</v>
@@ -1704,6 +1728,9 @@
       </c>
       <c r="F4">
         <v>432118</v>
+      </c>
+      <c r="G4" t="s">
+        <v>196</v>
       </c>
       <c r="H4" t="s">
         <v>28</v>
@@ -1767,8 +1794,8 @@
       <c r="B5" t="s">
         <v>26</v>
       </c>
-      <c r="C5">
-        <v>100</v>
+      <c r="C5" t="s">
+        <v>193</v>
       </c>
       <c r="D5" t="s">
         <v>27</v>
@@ -1778,6 +1805,9 @@
       </c>
       <c r="F5">
         <v>432118</v>
+      </c>
+      <c r="G5" t="s">
+        <v>196</v>
       </c>
       <c r="H5" t="s">
         <v>28</v>
@@ -1841,8 +1871,8 @@
       <c r="B6" t="s">
         <v>26</v>
       </c>
-      <c r="C6">
-        <v>100</v>
+      <c r="C6" t="s">
+        <v>193</v>
       </c>
       <c r="D6" t="s">
         <v>27</v>
@@ -1852,6 +1882,9 @@
       </c>
       <c r="F6">
         <v>432118</v>
+      </c>
+      <c r="G6" t="s">
+        <v>196</v>
       </c>
       <c r="H6" t="s">
         <v>28</v>
@@ -1915,8 +1948,8 @@
       <c r="B7" t="s">
         <v>39</v>
       </c>
-      <c r="C7">
-        <v>100</v>
+      <c r="C7" t="s">
+        <v>193</v>
       </c>
       <c r="D7" t="s">
         <v>27</v>
@@ -1926,6 +1959,9 @@
       </c>
       <c r="F7">
         <v>432118</v>
+      </c>
+      <c r="G7" t="s">
+        <v>196</v>
       </c>
       <c r="H7" t="s">
         <v>28</v>
@@ -1989,8 +2025,8 @@
       <c r="B8" t="s">
         <v>39</v>
       </c>
-      <c r="C8">
-        <v>100</v>
+      <c r="C8" t="s">
+        <v>193</v>
       </c>
       <c r="D8" t="s">
         <v>27</v>
@@ -2000,6 +2036,9 @@
       </c>
       <c r="F8">
         <v>432118</v>
+      </c>
+      <c r="G8" t="s">
+        <v>196</v>
       </c>
       <c r="H8" t="s">
         <v>28</v>
@@ -2063,8 +2102,8 @@
       <c r="B9" t="s">
         <v>39</v>
       </c>
-      <c r="C9">
-        <v>100</v>
+      <c r="C9" t="s">
+        <v>193</v>
       </c>
       <c r="D9" t="s">
         <v>27</v>
@@ -2074,6 +2113,9 @@
       </c>
       <c r="F9">
         <v>432118</v>
+      </c>
+      <c r="G9" t="s">
+        <v>196</v>
       </c>
       <c r="H9" t="s">
         <v>28</v>
@@ -2137,8 +2179,8 @@
       <c r="B10" t="s">
         <v>39</v>
       </c>
-      <c r="C10">
-        <v>100</v>
+      <c r="C10" t="s">
+        <v>193</v>
       </c>
       <c r="D10" t="s">
         <v>27</v>
@@ -2148,6 +2190,9 @@
       </c>
       <c r="F10">
         <v>432118</v>
+      </c>
+      <c r="G10" t="s">
+        <v>196</v>
       </c>
       <c r="H10" t="s">
         <v>28</v>
@@ -2211,8 +2256,8 @@
       <c r="B11" t="s">
         <v>45</v>
       </c>
-      <c r="C11">
-        <v>100</v>
+      <c r="C11" t="s">
+        <v>193</v>
       </c>
       <c r="D11" t="s">
         <v>27</v>
@@ -2222,6 +2267,9 @@
       </c>
       <c r="F11">
         <v>432118</v>
+      </c>
+      <c r="G11" t="s">
+        <v>196</v>
       </c>
       <c r="H11" t="s">
         <v>28</v>
@@ -2285,8 +2333,8 @@
       <c r="B12" t="s">
         <v>45</v>
       </c>
-      <c r="C12">
-        <v>100</v>
+      <c r="C12" t="s">
+        <v>193</v>
       </c>
       <c r="D12" t="s">
         <v>27</v>
@@ -2296,6 +2344,9 @@
       </c>
       <c r="F12">
         <v>432118</v>
+      </c>
+      <c r="G12" t="s">
+        <v>196</v>
       </c>
       <c r="H12" t="s">
         <v>28</v>
@@ -2359,8 +2410,8 @@
       <c r="B13" t="s">
         <v>45</v>
       </c>
-      <c r="C13">
-        <v>100</v>
+      <c r="C13" t="s">
+        <v>193</v>
       </c>
       <c r="D13" t="s">
         <v>27</v>
@@ -2370,6 +2421,9 @@
       </c>
       <c r="F13">
         <v>432118</v>
+      </c>
+      <c r="G13" t="s">
+        <v>196</v>
       </c>
       <c r="H13" t="s">
         <v>28</v>
@@ -2433,8 +2487,8 @@
       <c r="B14" t="s">
         <v>45</v>
       </c>
-      <c r="C14">
-        <v>100</v>
+      <c r="C14" t="s">
+        <v>193</v>
       </c>
       <c r="D14" t="s">
         <v>27</v>
@@ -2444,6 +2498,9 @@
       </c>
       <c r="F14">
         <v>432118</v>
+      </c>
+      <c r="G14" t="s">
+        <v>196</v>
       </c>
       <c r="H14" t="s">
         <v>28</v>
@@ -2507,8 +2564,8 @@
       <c r="B15" t="s">
         <v>52</v>
       </c>
-      <c r="C15">
-        <v>100</v>
+      <c r="C15" t="s">
+        <v>193</v>
       </c>
       <c r="D15" t="s">
         <v>27</v>
@@ -2518,6 +2575,9 @@
       </c>
       <c r="F15">
         <v>432118</v>
+      </c>
+      <c r="G15" t="s">
+        <v>196</v>
       </c>
       <c r="H15" t="s">
         <v>28</v>
@@ -2581,8 +2641,8 @@
       <c r="B16" t="s">
         <v>52</v>
       </c>
-      <c r="C16">
-        <v>100</v>
+      <c r="C16" t="s">
+        <v>193</v>
       </c>
       <c r="D16" t="s">
         <v>27</v>
@@ -2592,6 +2652,9 @@
       </c>
       <c r="F16">
         <v>432118</v>
+      </c>
+      <c r="G16" t="s">
+        <v>196</v>
       </c>
       <c r="H16" t="s">
         <v>28</v>
@@ -2655,8 +2718,8 @@
       <c r="B17" t="s">
         <v>56</v>
       </c>
-      <c r="C17">
-        <v>100</v>
+      <c r="C17" t="s">
+        <v>193</v>
       </c>
       <c r="D17" t="s">
         <v>27</v>
@@ -2666,6 +2729,9 @@
       </c>
       <c r="F17">
         <v>432118</v>
+      </c>
+      <c r="G17" t="s">
+        <v>196</v>
       </c>
       <c r="H17" t="s">
         <v>28</v>
@@ -2729,8 +2795,8 @@
       <c r="B18" t="s">
         <v>56</v>
       </c>
-      <c r="C18">
-        <v>100</v>
+      <c r="C18" t="s">
+        <v>193</v>
       </c>
       <c r="D18" t="s">
         <v>27</v>
@@ -2740,6 +2806,9 @@
       </c>
       <c r="F18">
         <v>432118</v>
+      </c>
+      <c r="G18" t="s">
+        <v>196</v>
       </c>
       <c r="H18" t="s">
         <v>28</v>
@@ -2803,8 +2872,8 @@
       <c r="B19" t="s">
         <v>60</v>
       </c>
-      <c r="C19">
-        <v>100</v>
+      <c r="C19" t="s">
+        <v>193</v>
       </c>
       <c r="D19" t="s">
         <v>27</v>
@@ -2814,6 +2883,9 @@
       </c>
       <c r="F19">
         <v>432118</v>
+      </c>
+      <c r="G19" t="s">
+        <v>196</v>
       </c>
       <c r="H19" t="s">
         <v>28</v>
@@ -2877,8 +2949,8 @@
       <c r="B20" t="s">
         <v>60</v>
       </c>
-      <c r="C20">
-        <v>100</v>
+      <c r="C20" t="s">
+        <v>193</v>
       </c>
       <c r="D20" t="s">
         <v>27</v>
@@ -2888,6 +2960,9 @@
       </c>
       <c r="F20">
         <v>432118</v>
+      </c>
+      <c r="G20" t="s">
+        <v>196</v>
       </c>
       <c r="H20" t="s">
         <v>28</v>
@@ -2951,8 +3026,8 @@
       <c r="B21" t="s">
         <v>60</v>
       </c>
-      <c r="C21">
-        <v>100</v>
+      <c r="C21" t="s">
+        <v>193</v>
       </c>
       <c r="D21" t="s">
         <v>27</v>
@@ -2962,6 +3037,9 @@
       </c>
       <c r="F21">
         <v>432118</v>
+      </c>
+      <c r="G21" t="s">
+        <v>196</v>
       </c>
       <c r="H21" t="s">
         <v>28</v>
@@ -3025,8 +3103,8 @@
       <c r="B22" t="s">
         <v>66</v>
       </c>
-      <c r="C22">
-        <v>100</v>
+      <c r="C22" t="s">
+        <v>193</v>
       </c>
       <c r="D22" t="s">
         <v>27</v>
@@ -3036,6 +3114,9 @@
       </c>
       <c r="F22">
         <v>432118</v>
+      </c>
+      <c r="G22" t="s">
+        <v>196</v>
       </c>
       <c r="H22" t="s">
         <v>28</v>
@@ -3099,8 +3180,8 @@
       <c r="B23" t="s">
         <v>66</v>
       </c>
-      <c r="C23">
-        <v>100</v>
+      <c r="C23" t="s">
+        <v>193</v>
       </c>
       <c r="D23" t="s">
         <v>27</v>
@@ -3110,6 +3191,9 @@
       </c>
       <c r="F23">
         <v>432118</v>
+      </c>
+      <c r="G23" t="s">
+        <v>196</v>
       </c>
       <c r="H23" t="s">
         <v>28</v>
@@ -3173,8 +3257,8 @@
       <c r="B24" t="s">
         <v>66</v>
       </c>
-      <c r="C24">
-        <v>100</v>
+      <c r="C24" t="s">
+        <v>193</v>
       </c>
       <c r="D24" t="s">
         <v>27</v>
@@ -3184,6 +3268,9 @@
       </c>
       <c r="F24">
         <v>432118</v>
+      </c>
+      <c r="G24" t="s">
+        <v>196</v>
       </c>
       <c r="H24" t="s">
         <v>28</v>
@@ -3247,8 +3334,8 @@
       <c r="B25" t="s">
         <v>72</v>
       </c>
-      <c r="C25">
-        <v>100</v>
+      <c r="C25" t="s">
+        <v>193</v>
       </c>
       <c r="D25" t="s">
         <v>27</v>
@@ -3258,6 +3345,9 @@
       </c>
       <c r="F25">
         <v>432118</v>
+      </c>
+      <c r="G25" t="s">
+        <v>196</v>
       </c>
       <c r="H25" t="s">
         <v>28</v>
@@ -3321,8 +3411,8 @@
       <c r="B26" t="s">
         <v>72</v>
       </c>
-      <c r="C26">
-        <v>100</v>
+      <c r="C26" t="s">
+        <v>193</v>
       </c>
       <c r="D26" t="s">
         <v>27</v>
@@ -3332,6 +3422,9 @@
       </c>
       <c r="F26">
         <v>432118</v>
+      </c>
+      <c r="G26" t="s">
+        <v>196</v>
       </c>
       <c r="H26" t="s">
         <v>28</v>
@@ -3395,8 +3488,8 @@
       <c r="B27" t="s">
         <v>77</v>
       </c>
-      <c r="C27">
-        <v>100</v>
+      <c r="C27" t="s">
+        <v>193</v>
       </c>
       <c r="D27" t="s">
         <v>27</v>
@@ -3406,6 +3499,9 @@
       </c>
       <c r="F27">
         <v>432118</v>
+      </c>
+      <c r="G27" t="s">
+        <v>196</v>
       </c>
       <c r="H27" t="s">
         <v>28</v>
@@ -3469,8 +3565,8 @@
       <c r="B28" t="s">
         <v>77</v>
       </c>
-      <c r="C28">
-        <v>100</v>
+      <c r="C28" t="s">
+        <v>193</v>
       </c>
       <c r="D28" t="s">
         <v>27</v>
@@ -3480,6 +3576,9 @@
       </c>
       <c r="F28">
         <v>432118</v>
+      </c>
+      <c r="G28" t="s">
+        <v>196</v>
       </c>
       <c r="H28" t="s">
         <v>28</v>
@@ -3546,11 +3645,17 @@
       <c r="C29" t="s">
         <v>83</v>
       </c>
+      <c r="D29" t="s">
+        <v>195</v>
+      </c>
       <c r="E29">
         <v>1</v>
       </c>
       <c r="F29">
         <v>432118</v>
+      </c>
+      <c r="G29" t="s">
+        <v>196</v>
       </c>
       <c r="H29" t="s">
         <v>29</v>
@@ -3617,11 +3722,17 @@
       <c r="C30" t="s">
         <v>83</v>
       </c>
+      <c r="D30" t="s">
+        <v>195</v>
+      </c>
       <c r="E30">
         <v>1</v>
       </c>
       <c r="F30">
         <v>432118</v>
+      </c>
+      <c r="G30" t="s">
+        <v>196</v>
       </c>
       <c r="H30" t="s">
         <v>29</v>
@@ -3688,11 +3799,17 @@
       <c r="C31" t="s">
         <v>83</v>
       </c>
+      <c r="D31" t="s">
+        <v>195</v>
+      </c>
       <c r="E31">
         <v>1</v>
       </c>
       <c r="F31">
         <v>432118</v>
+      </c>
+      <c r="G31" t="s">
+        <v>196</v>
       </c>
       <c r="H31" t="s">
         <v>29</v>
@@ -3759,11 +3876,17 @@
       <c r="C32" t="s">
         <v>83</v>
       </c>
+      <c r="D32" t="s">
+        <v>195</v>
+      </c>
       <c r="E32">
         <v>1</v>
       </c>
       <c r="F32">
         <v>432118</v>
+      </c>
+      <c r="G32" t="s">
+        <v>196</v>
       </c>
       <c r="H32" t="s">
         <v>29</v>
@@ -3830,11 +3953,17 @@
       <c r="C33" t="s">
         <v>83</v>
       </c>
+      <c r="D33" t="s">
+        <v>195</v>
+      </c>
       <c r="E33">
         <v>1</v>
       </c>
       <c r="F33">
         <v>432118</v>
+      </c>
+      <c r="G33" t="s">
+        <v>196</v>
       </c>
       <c r="H33" t="s">
         <v>29</v>
@@ -3901,11 +4030,17 @@
       <c r="C34" t="s">
         <v>83</v>
       </c>
+      <c r="D34" t="s">
+        <v>195</v>
+      </c>
       <c r="E34">
         <v>1</v>
       </c>
       <c r="F34">
         <v>432118</v>
+      </c>
+      <c r="G34" t="s">
+        <v>196</v>
       </c>
       <c r="H34" t="s">
         <v>29</v>
@@ -3972,11 +4107,17 @@
       <c r="C35" t="s">
         <v>83</v>
       </c>
+      <c r="D35" t="s">
+        <v>195</v>
+      </c>
       <c r="E35">
         <v>1</v>
       </c>
       <c r="F35">
         <v>432118</v>
+      </c>
+      <c r="G35" t="s">
+        <v>196</v>
       </c>
       <c r="H35" t="s">
         <v>29</v>
@@ -4043,11 +4184,17 @@
       <c r="C36" t="s">
         <v>83</v>
       </c>
+      <c r="D36" t="s">
+        <v>195</v>
+      </c>
       <c r="E36">
         <v>1</v>
       </c>
       <c r="F36">
         <v>432118</v>
+      </c>
+      <c r="G36" t="s">
+        <v>196</v>
       </c>
       <c r="H36" t="s">
         <v>29</v>
@@ -4114,11 +4261,17 @@
       <c r="C37" t="s">
         <v>83</v>
       </c>
+      <c r="D37" t="s">
+        <v>195</v>
+      </c>
       <c r="E37">
         <v>1</v>
       </c>
       <c r="F37">
         <v>432118</v>
+      </c>
+      <c r="G37" t="s">
+        <v>196</v>
       </c>
       <c r="H37" t="s">
         <v>29</v>
@@ -4185,11 +4338,17 @@
       <c r="C38" t="s">
         <v>83</v>
       </c>
+      <c r="D38" t="s">
+        <v>195</v>
+      </c>
       <c r="E38">
         <v>1</v>
       </c>
       <c r="F38">
         <v>432118</v>
+      </c>
+      <c r="G38" t="s">
+        <v>196</v>
       </c>
       <c r="H38" t="s">
         <v>29</v>
@@ -4256,11 +4415,17 @@
       <c r="C39" t="s">
         <v>83</v>
       </c>
+      <c r="D39" t="s">
+        <v>195</v>
+      </c>
       <c r="E39">
         <v>1</v>
       </c>
       <c r="F39">
         <v>432118</v>
+      </c>
+      <c r="G39" t="s">
+        <v>196</v>
       </c>
       <c r="H39" t="s">
         <v>29</v>
@@ -4327,11 +4492,17 @@
       <c r="C40" t="s">
         <v>83</v>
       </c>
+      <c r="D40" t="s">
+        <v>195</v>
+      </c>
       <c r="E40">
         <v>1</v>
       </c>
       <c r="F40">
         <v>432118</v>
+      </c>
+      <c r="G40" t="s">
+        <v>196</v>
       </c>
       <c r="H40" t="s">
         <v>29</v>
@@ -4398,11 +4569,17 @@
       <c r="C41" t="s">
         <v>83</v>
       </c>
+      <c r="D41" t="s">
+        <v>195</v>
+      </c>
       <c r="E41">
         <v>1</v>
       </c>
       <c r="F41">
         <v>432118</v>
+      </c>
+      <c r="G41" t="s">
+        <v>196</v>
       </c>
       <c r="H41" t="s">
         <v>29</v>
@@ -4469,11 +4646,17 @@
       <c r="C42" t="s">
         <v>83</v>
       </c>
+      <c r="D42" t="s">
+        <v>195</v>
+      </c>
       <c r="E42">
         <v>1</v>
       </c>
       <c r="F42">
         <v>432118</v>
+      </c>
+      <c r="G42" t="s">
+        <v>196</v>
       </c>
       <c r="H42" t="s">
         <v>29</v>
@@ -4540,11 +4723,17 @@
       <c r="C43" t="s">
         <v>83</v>
       </c>
+      <c r="D43" t="s">
+        <v>195</v>
+      </c>
       <c r="E43">
         <v>1</v>
       </c>
       <c r="F43">
         <v>432118</v>
+      </c>
+      <c r="G43" t="s">
+        <v>196</v>
       </c>
       <c r="H43" t="s">
         <v>29</v>
@@ -4611,11 +4800,17 @@
       <c r="C44" t="s">
         <v>83</v>
       </c>
+      <c r="D44" t="s">
+        <v>195</v>
+      </c>
       <c r="E44">
         <v>1</v>
       </c>
       <c r="F44">
         <v>432118</v>
+      </c>
+      <c r="G44" t="s">
+        <v>196</v>
       </c>
       <c r="H44" t="s">
         <v>29</v>
@@ -4682,11 +4877,17 @@
       <c r="C45" t="s">
         <v>83</v>
       </c>
+      <c r="D45" t="s">
+        <v>195</v>
+      </c>
       <c r="E45">
         <v>1</v>
       </c>
       <c r="F45">
         <v>432118</v>
+      </c>
+      <c r="G45" t="s">
+        <v>196</v>
       </c>
       <c r="H45" t="s">
         <v>29</v>
@@ -4753,11 +4954,17 @@
       <c r="C46" t="s">
         <v>83</v>
       </c>
+      <c r="D46" t="s">
+        <v>195</v>
+      </c>
       <c r="E46">
         <v>1</v>
       </c>
       <c r="F46">
         <v>432118</v>
+      </c>
+      <c r="G46" t="s">
+        <v>196</v>
       </c>
       <c r="H46" t="s">
         <v>29</v>
@@ -4824,11 +5031,17 @@
       <c r="C47" t="s">
         <v>83</v>
       </c>
+      <c r="D47" t="s">
+        <v>195</v>
+      </c>
       <c r="E47">
         <v>1</v>
       </c>
       <c r="F47">
         <v>432118</v>
+      </c>
+      <c r="G47" t="s">
+        <v>196</v>
       </c>
       <c r="H47" t="s">
         <v>29</v>
@@ -4895,11 +5108,17 @@
       <c r="C48" t="s">
         <v>83</v>
       </c>
+      <c r="D48" t="s">
+        <v>195</v>
+      </c>
       <c r="E48">
         <v>1</v>
       </c>
       <c r="F48">
         <v>432118</v>
+      </c>
+      <c r="G48" t="s">
+        <v>196</v>
       </c>
       <c r="H48" t="s">
         <v>29</v>
@@ -4966,11 +5185,17 @@
       <c r="C49" t="s">
         <v>83</v>
       </c>
+      <c r="D49" t="s">
+        <v>195</v>
+      </c>
       <c r="E49">
         <v>1</v>
       </c>
       <c r="F49">
         <v>432118</v>
+      </c>
+      <c r="G49" t="s">
+        <v>196</v>
       </c>
       <c r="H49" t="s">
         <v>29</v>
@@ -5037,11 +5262,17 @@
       <c r="C50" t="s">
         <v>83</v>
       </c>
+      <c r="D50" t="s">
+        <v>195</v>
+      </c>
       <c r="E50">
         <v>1</v>
       </c>
       <c r="F50">
         <v>432118</v>
+      </c>
+      <c r="G50" t="s">
+        <v>196</v>
       </c>
       <c r="H50" t="s">
         <v>29</v>
@@ -5108,11 +5339,17 @@
       <c r="C51" t="s">
         <v>83</v>
       </c>
+      <c r="D51" t="s">
+        <v>195</v>
+      </c>
       <c r="E51">
         <v>1</v>
       </c>
       <c r="F51">
         <v>432118</v>
+      </c>
+      <c r="G51" t="s">
+        <v>196</v>
       </c>
       <c r="H51" t="s">
         <v>29</v>
@@ -5179,11 +5416,17 @@
       <c r="C52" t="s">
         <v>83</v>
       </c>
+      <c r="D52" t="s">
+        <v>195</v>
+      </c>
       <c r="E52">
         <v>1</v>
       </c>
       <c r="F52">
         <v>432118</v>
+      </c>
+      <c r="G52" t="s">
+        <v>196</v>
       </c>
       <c r="H52" t="s">
         <v>29</v>
@@ -5250,11 +5493,17 @@
       <c r="C53" t="s">
         <v>83</v>
       </c>
+      <c r="D53" t="s">
+        <v>195</v>
+      </c>
       <c r="E53">
         <v>1</v>
       </c>
       <c r="F53">
         <v>432118</v>
+      </c>
+      <c r="G53" t="s">
+        <v>196</v>
       </c>
       <c r="H53" t="s">
         <v>29</v>
@@ -5321,11 +5570,17 @@
       <c r="C54" t="s">
         <v>83</v>
       </c>
+      <c r="D54" t="s">
+        <v>195</v>
+      </c>
       <c r="E54">
         <v>1</v>
       </c>
       <c r="F54">
         <v>432118</v>
+      </c>
+      <c r="G54" t="s">
+        <v>196</v>
       </c>
       <c r="H54" t="s">
         <v>29</v>
@@ -5392,11 +5647,17 @@
       <c r="C55" t="s">
         <v>83</v>
       </c>
+      <c r="D55" t="s">
+        <v>195</v>
+      </c>
       <c r="E55">
         <v>1</v>
       </c>
       <c r="F55">
         <v>432118</v>
+      </c>
+      <c r="G55" t="s">
+        <v>196</v>
       </c>
       <c r="H55" t="s">
         <v>29</v>
@@ -5463,11 +5724,17 @@
       <c r="C56" t="s">
         <v>83</v>
       </c>
+      <c r="D56" t="s">
+        <v>195</v>
+      </c>
       <c r="E56">
         <v>1</v>
       </c>
       <c r="F56">
         <v>432118</v>
+      </c>
+      <c r="G56" t="s">
+        <v>196</v>
       </c>
       <c r="H56" t="s">
         <v>29</v>
@@ -5534,11 +5801,17 @@
       <c r="C57" t="s">
         <v>83</v>
       </c>
+      <c r="D57" t="s">
+        <v>195</v>
+      </c>
       <c r="E57">
         <v>1</v>
       </c>
       <c r="F57">
         <v>432118</v>
+      </c>
+      <c r="G57" t="s">
+        <v>196</v>
       </c>
       <c r="H57" t="s">
         <v>29</v>
@@ -5605,11 +5878,17 @@
       <c r="C58" t="s">
         <v>134</v>
       </c>
+      <c r="D58" t="s">
+        <v>194</v>
+      </c>
       <c r="E58">
         <v>1</v>
       </c>
       <c r="F58">
         <v>432118</v>
+      </c>
+      <c r="G58" t="s">
+        <v>196</v>
       </c>
       <c r="H58" t="s">
         <v>29</v>
@@ -5676,11 +5955,17 @@
       <c r="C59" t="s">
         <v>134</v>
       </c>
+      <c r="D59" t="s">
+        <v>194</v>
+      </c>
       <c r="E59">
         <v>1</v>
       </c>
       <c r="F59">
         <v>432118</v>
+      </c>
+      <c r="G59" t="s">
+        <v>196</v>
       </c>
       <c r="H59" t="s">
         <v>29</v>
@@ -5747,11 +6032,17 @@
       <c r="C60" t="s">
         <v>134</v>
       </c>
+      <c r="D60" t="s">
+        <v>194</v>
+      </c>
       <c r="E60">
         <v>1</v>
       </c>
       <c r="F60">
         <v>432118</v>
+      </c>
+      <c r="G60" t="s">
+        <v>196</v>
       </c>
       <c r="H60" t="s">
         <v>29</v>
@@ -5818,11 +6109,17 @@
       <c r="C61" t="s">
         <v>134</v>
       </c>
+      <c r="D61" t="s">
+        <v>194</v>
+      </c>
       <c r="E61">
         <v>1</v>
       </c>
       <c r="F61">
         <v>432118</v>
+      </c>
+      <c r="G61" t="s">
+        <v>196</v>
       </c>
       <c r="H61" t="s">
         <v>29</v>
@@ -5889,11 +6186,17 @@
       <c r="C62" t="s">
         <v>134</v>
       </c>
+      <c r="D62" t="s">
+        <v>194</v>
+      </c>
       <c r="E62">
         <v>1</v>
       </c>
       <c r="F62">
         <v>432118</v>
+      </c>
+      <c r="G62" t="s">
+        <v>196</v>
       </c>
       <c r="H62" t="s">
         <v>29</v>
@@ -5960,11 +6263,17 @@
       <c r="C63" t="s">
         <v>134</v>
       </c>
+      <c r="D63" t="s">
+        <v>194</v>
+      </c>
       <c r="E63">
         <v>1</v>
       </c>
       <c r="F63">
         <v>432118</v>
+      </c>
+      <c r="G63" t="s">
+        <v>196</v>
       </c>
       <c r="H63" t="s">
         <v>29</v>
@@ -6031,11 +6340,17 @@
       <c r="C64" t="s">
         <v>134</v>
       </c>
+      <c r="D64" t="s">
+        <v>194</v>
+      </c>
       <c r="E64">
         <v>1</v>
       </c>
       <c r="F64">
         <v>432118</v>
+      </c>
+      <c r="G64" t="s">
+        <v>196</v>
       </c>
       <c r="H64" t="s">
         <v>29</v>
@@ -6102,11 +6417,17 @@
       <c r="C65" t="s">
         <v>134</v>
       </c>
+      <c r="D65" t="s">
+        <v>194</v>
+      </c>
       <c r="E65">
         <v>1</v>
       </c>
       <c r="F65">
         <v>432118</v>
+      </c>
+      <c r="G65" t="s">
+        <v>196</v>
       </c>
       <c r="H65" t="s">
         <v>29</v>
@@ -6173,11 +6494,17 @@
       <c r="C66" t="s">
         <v>134</v>
       </c>
+      <c r="D66" t="s">
+        <v>194</v>
+      </c>
       <c r="E66">
         <v>1</v>
       </c>
       <c r="F66">
         <v>432118</v>
+      </c>
+      <c r="G66" t="s">
+        <v>196</v>
       </c>
       <c r="H66" t="s">
         <v>29</v>
@@ -6244,11 +6571,17 @@
       <c r="C67" t="s">
         <v>134</v>
       </c>
+      <c r="D67" t="s">
+        <v>194</v>
+      </c>
       <c r="E67">
         <v>1</v>
       </c>
       <c r="F67">
         <v>432118</v>
+      </c>
+      <c r="G67" t="s">
+        <v>196</v>
       </c>
       <c r="H67" t="s">
         <v>29</v>
@@ -6315,11 +6648,17 @@
       <c r="C68" t="s">
         <v>134</v>
       </c>
+      <c r="D68" t="s">
+        <v>194</v>
+      </c>
       <c r="E68">
         <v>1</v>
       </c>
       <c r="F68">
         <v>432118</v>
+      </c>
+      <c r="G68" t="s">
+        <v>196</v>
       </c>
       <c r="H68" t="s">
         <v>29</v>
@@ -6386,11 +6725,17 @@
       <c r="C69" t="s">
         <v>134</v>
       </c>
+      <c r="D69" t="s">
+        <v>194</v>
+      </c>
       <c r="E69">
         <v>1</v>
       </c>
       <c r="F69">
         <v>432118</v>
+      </c>
+      <c r="G69" t="s">
+        <v>196</v>
       </c>
       <c r="H69" t="s">
         <v>29</v>
@@ -6457,11 +6802,17 @@
       <c r="C70" t="s">
         <v>134</v>
       </c>
+      <c r="D70" t="s">
+        <v>194</v>
+      </c>
       <c r="E70">
         <v>1</v>
       </c>
       <c r="F70">
         <v>432118</v>
+      </c>
+      <c r="G70" t="s">
+        <v>196</v>
       </c>
       <c r="H70" t="s">
         <v>29</v>
@@ -6528,11 +6879,17 @@
       <c r="C71" t="s">
         <v>134</v>
       </c>
+      <c r="D71" t="s">
+        <v>194</v>
+      </c>
       <c r="E71">
         <v>1</v>
       </c>
       <c r="F71">
         <v>432118</v>
+      </c>
+      <c r="G71" t="s">
+        <v>196</v>
       </c>
       <c r="H71" t="s">
         <v>29</v>
@@ -6599,11 +6956,17 @@
       <c r="C72" t="s">
         <v>134</v>
       </c>
+      <c r="D72" t="s">
+        <v>194</v>
+      </c>
       <c r="E72">
         <v>1</v>
       </c>
       <c r="F72">
         <v>432118</v>
+      </c>
+      <c r="G72" t="s">
+        <v>196</v>
       </c>
       <c r="H72" t="s">
         <v>29</v>
@@ -6670,11 +7033,17 @@
       <c r="C73" t="s">
         <v>134</v>
       </c>
+      <c r="D73" t="s">
+        <v>194</v>
+      </c>
       <c r="E73">
         <v>1</v>
       </c>
       <c r="F73">
         <v>432118</v>
+      </c>
+      <c r="G73" t="s">
+        <v>196</v>
       </c>
       <c r="H73" t="s">
         <v>29</v>
@@ -6741,11 +7110,17 @@
       <c r="C74" t="s">
         <v>134</v>
       </c>
+      <c r="D74" t="s">
+        <v>194</v>
+      </c>
       <c r="E74">
         <v>1</v>
       </c>
       <c r="F74">
         <v>432118</v>
+      </c>
+      <c r="G74" t="s">
+        <v>196</v>
       </c>
       <c r="H74" t="s">
         <v>29</v>
@@ -6812,11 +7187,17 @@
       <c r="C75" t="s">
         <v>134</v>
       </c>
+      <c r="D75" t="s">
+        <v>194</v>
+      </c>
       <c r="E75">
         <v>1</v>
       </c>
       <c r="F75">
         <v>432118</v>
+      </c>
+      <c r="G75" t="s">
+        <v>196</v>
       </c>
       <c r="H75" t="s">
         <v>29</v>
@@ -6883,11 +7264,17 @@
       <c r="C76" t="s">
         <v>134</v>
       </c>
+      <c r="D76" t="s">
+        <v>194</v>
+      </c>
       <c r="E76">
         <v>1</v>
       </c>
       <c r="F76">
         <v>432118</v>
+      </c>
+      <c r="G76" t="s">
+        <v>196</v>
       </c>
       <c r="H76" t="s">
         <v>29</v>
@@ -6954,11 +7341,17 @@
       <c r="C77" t="s">
         <v>134</v>
       </c>
+      <c r="D77" t="s">
+        <v>194</v>
+      </c>
       <c r="E77">
         <v>1</v>
       </c>
       <c r="F77">
         <v>432118</v>
+      </c>
+      <c r="G77" t="s">
+        <v>196</v>
       </c>
       <c r="H77" t="s">
         <v>29</v>
@@ -7025,11 +7418,17 @@
       <c r="C78" t="s">
         <v>134</v>
       </c>
+      <c r="D78" t="s">
+        <v>194</v>
+      </c>
       <c r="E78">
         <v>1</v>
       </c>
       <c r="F78">
         <v>432118</v>
+      </c>
+      <c r="G78" t="s">
+        <v>196</v>
       </c>
       <c r="H78" t="s">
         <v>29</v>
@@ -7096,11 +7495,17 @@
       <c r="C79" t="s">
         <v>134</v>
       </c>
+      <c r="D79" t="s">
+        <v>194</v>
+      </c>
       <c r="E79">
         <v>1</v>
       </c>
       <c r="F79">
         <v>432118</v>
+      </c>
+      <c r="G79" t="s">
+        <v>196</v>
       </c>
       <c r="H79" t="s">
         <v>29</v>
@@ -7167,11 +7572,17 @@
       <c r="C80" t="s">
         <v>134</v>
       </c>
+      <c r="D80" t="s">
+        <v>194</v>
+      </c>
       <c r="E80">
         <v>1</v>
       </c>
       <c r="F80">
         <v>432118</v>
+      </c>
+      <c r="G80" t="s">
+        <v>196</v>
       </c>
       <c r="H80" t="s">
         <v>29</v>
@@ -7238,11 +7649,17 @@
       <c r="C81" t="s">
         <v>134</v>
       </c>
+      <c r="D81" t="s">
+        <v>194</v>
+      </c>
       <c r="E81">
         <v>1</v>
       </c>
       <c r="F81">
         <v>432118</v>
+      </c>
+      <c r="G81" t="s">
+        <v>196</v>
       </c>
       <c r="H81" t="s">
         <v>29</v>
@@ -7309,11 +7726,17 @@
       <c r="C82" t="s">
         <v>134</v>
       </c>
+      <c r="D82" t="s">
+        <v>194</v>
+      </c>
       <c r="E82">
         <v>1</v>
       </c>
       <c r="F82">
         <v>432118</v>
+      </c>
+      <c r="G82" t="s">
+        <v>196</v>
       </c>
       <c r="H82" t="s">
         <v>29</v>
@@ -7380,11 +7803,17 @@
       <c r="C83" t="s">
         <v>134</v>
       </c>
+      <c r="D83" t="s">
+        <v>194</v>
+      </c>
       <c r="E83">
         <v>1</v>
       </c>
       <c r="F83">
         <v>432118</v>
+      </c>
+      <c r="G83" t="s">
+        <v>196</v>
       </c>
       <c r="H83" t="s">
         <v>29</v>
@@ -7451,11 +7880,17 @@
       <c r="C84" t="s">
         <v>134</v>
       </c>
+      <c r="D84" t="s">
+        <v>194</v>
+      </c>
       <c r="E84">
         <v>1</v>
       </c>
       <c r="F84">
         <v>432118</v>
+      </c>
+      <c r="G84" t="s">
+        <v>196</v>
       </c>
       <c r="H84" t="s">
         <v>29</v>
@@ -7522,11 +7957,17 @@
       <c r="C85" t="s">
         <v>134</v>
       </c>
+      <c r="D85" t="s">
+        <v>194</v>
+      </c>
       <c r="E85">
         <v>1</v>
       </c>
       <c r="F85">
         <v>432118</v>
+      </c>
+      <c r="G85" t="s">
+        <v>196</v>
       </c>
       <c r="H85" t="s">
         <v>29</v>
@@ -7593,11 +8034,17 @@
       <c r="C86" t="s">
         <v>134</v>
       </c>
+      <c r="D86" t="s">
+        <v>194</v>
+      </c>
       <c r="E86">
         <v>1</v>
       </c>
       <c r="F86">
         <v>432118</v>
+      </c>
+      <c r="G86" t="s">
+        <v>196</v>
       </c>
       <c r="H86" t="s">
         <v>29</v>
@@ -7664,11 +8111,17 @@
       <c r="C87" t="s">
         <v>134</v>
       </c>
+      <c r="D87" t="s">
+        <v>194</v>
+      </c>
       <c r="E87">
         <v>1</v>
       </c>
       <c r="F87">
         <v>432118</v>
+      </c>
+      <c r="G87" t="s">
+        <v>196</v>
       </c>
       <c r="H87" t="s">
         <v>29</v>
@@ -7735,11 +8188,17 @@
       <c r="C88" t="s">
         <v>134</v>
       </c>
+      <c r="D88" t="s">
+        <v>194</v>
+      </c>
       <c r="E88">
         <v>1</v>
       </c>
       <c r="F88">
         <v>432118</v>
+      </c>
+      <c r="G88" t="s">
+        <v>196</v>
       </c>
       <c r="H88" t="s">
         <v>29</v>
